--- a/config/project/matain/IntegrateConfig.xlsx
+++ b/config/project/matain/IntegrateConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522">
   <si>
     <t>组序号</t>
   </si>
@@ -911,6 +911,9 @@
     <t>1枪K4</t>
   </si>
   <si>
+    <t>BIBO</t>
+  </si>
+  <si>
     <t>2枪K3</t>
   </si>
   <si>
@@ -1319,6 +1322,12 @@
   </si>
   <si>
     <t>matain</t>
+  </si>
+  <si>
+    <t>打开交流接触器</t>
+  </si>
+  <si>
+    <t>matain_charging</t>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
@@ -1930,6 +1939,9 @@
     </r>
   </si>
   <si>
+    <t>BOMASK</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -2341,6 +2353,12 @@
     <t>0x4501</t>
   </si>
   <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
     <t>0x0008</t>
   </si>
   <si>
@@ -2408,10 +2426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2457,8 +2475,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2470,40 +2514,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2511,27 +2524,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2552,27 +2544,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2630,73 +2648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,7 +2666,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,25 +2726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,7 +2738,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,11 +2855,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2866,6 +2899,30 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,50 +2953,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,10 +2969,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2966,7 +2984,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2975,124 +2993,124 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3590,10 +3608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E223" sqref="E222:E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6145,7 +6163,7 @@
         <v>192</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D128" s="22">
         <v>127</v>
@@ -6163,7 +6181,7 @@
     <row r="129" spans="1:7">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>187</v>
@@ -6172,7 +6190,7 @@
         <v>128</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>32</v>
@@ -6184,7 +6202,7 @@
     <row r="130" spans="1:7">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>187</v>
@@ -6193,7 +6211,7 @@
         <v>129</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>32</v>
@@ -6205,7 +6223,7 @@
     <row r="131" spans="1:7">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>187</v>
@@ -6214,7 +6232,7 @@
         <v>130</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>32</v>
@@ -6226,7 +6244,7 @@
     <row r="132" spans="1:7">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>187</v>
@@ -6235,7 +6253,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>32</v>
@@ -6247,7 +6265,7 @@
     <row r="133" spans="1:7">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>187</v>
@@ -6256,7 +6274,7 @@
         <v>132</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>32</v>
@@ -6268,7 +6286,7 @@
     <row r="134" spans="1:7">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>187</v>
@@ -6277,7 +6295,7 @@
         <v>133</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F134" s="16" t="s">
         <v>32</v>
@@ -6289,7 +6307,7 @@
     <row r="135" spans="1:7">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>187</v>
@@ -6298,7 +6316,7 @@
         <v>134</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F135" s="16" t="s">
         <v>32</v>
@@ -6310,7 +6328,7 @@
     <row r="136" spans="1:7">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>187</v>
@@ -6319,7 +6337,7 @@
         <v>135</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>32</v>
@@ -6331,7 +6349,7 @@
     <row r="137" spans="1:7">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>8</v>
@@ -6340,7 +6358,7 @@
         <v>136</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>32</v>
@@ -6352,7 +6370,7 @@
     <row r="138" spans="1:7">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>8</v>
@@ -6361,7 +6379,7 @@
         <v>137</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>32</v>
@@ -6373,7 +6391,7 @@
     <row r="139" spans="1:7">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>8</v>
@@ -6382,7 +6400,7 @@
         <v>138</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F139" s="16" t="s">
         <v>32</v>
@@ -6394,7 +6412,7 @@
     <row r="140" spans="1:7">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>8</v>
@@ -6403,7 +6421,7 @@
         <v>139</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>32</v>
@@ -6415,7 +6433,7 @@
     <row r="141" spans="1:7">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>8</v>
@@ -6424,7 +6442,7 @@
         <v>140</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>32</v>
@@ -6436,7 +6454,7 @@
     <row r="142" spans="1:7">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>8</v>
@@ -6445,7 +6463,7 @@
         <v>141</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>32</v>
@@ -6457,7 +6475,7 @@
     <row r="143" spans="1:7">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>8</v>
@@ -6466,7 +6484,7 @@
         <v>142</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>32</v>
@@ -6478,7 +6496,7 @@
     <row r="144" spans="1:7">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>8</v>
@@ -6487,7 +6505,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>32</v>
@@ -6499,7 +6517,7 @@
     <row r="145" spans="1:7">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>8</v>
@@ -6508,7 +6526,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>32</v>
@@ -6520,7 +6538,7 @@
     <row r="146" spans="1:7">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>8</v>
@@ -6529,7 +6547,7 @@
         <v>145</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>32</v>
@@ -6541,7 +6559,7 @@
     <row r="147" spans="1:7">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>8</v>
@@ -6550,7 +6568,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>32</v>
@@ -6562,7 +6580,7 @@
     <row r="148" spans="1:7">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>8</v>
@@ -6571,7 +6589,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>32</v>
@@ -6583,7 +6601,7 @@
     <row r="149" spans="1:7">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>8</v>
@@ -6592,7 +6610,7 @@
         <v>148</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>32</v>
@@ -6604,7 +6622,7 @@
     <row r="150" spans="1:7">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>8</v>
@@ -6613,7 +6631,7 @@
         <v>149</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>32</v>
@@ -6625,7 +6643,7 @@
     <row r="151" spans="1:7">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>187</v>
@@ -6634,7 +6652,7 @@
         <v>150</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>32</v>
@@ -6646,16 +6664,16 @@
     <row r="152" spans="1:7">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D152" s="16">
         <v>151</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>32</v>
@@ -6667,22 +6685,22 @@
     <row r="153" ht="14.25" spans="1:7">
       <c r="A153" s="49"/>
       <c r="B153" s="49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
       <c r="E153" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F153" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G153" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6693,13 +6711,13 @@
         <v>153</v>
       </c>
       <c r="E154" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F154" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="F154" s="45" t="s">
-        <v>221</v>
-      </c>
       <c r="G154" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6710,286 +6728,286 @@
         <v>154</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F155" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G155" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="51"/>
       <c r="B156" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C156" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D156" s="53">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="51"/>
       <c r="B157" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C157" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D157" s="53">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="51"/>
       <c r="B158" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C158" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D158" s="53">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="51"/>
       <c r="B159" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C159" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D159" s="53">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F159" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="51"/>
       <c r="B160" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C160" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D160" s="53">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F160" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="51"/>
       <c r="B161" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C161" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D161" s="53">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="51"/>
       <c r="B162" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C162" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D162" s="53">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F162" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="51"/>
       <c r="B163" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C163" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D163" s="53">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="51"/>
       <c r="B164" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C164" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D164" s="53">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="51"/>
       <c r="B165" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C165" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D165" s="53">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="51"/>
       <c r="B166" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C166" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D166" s="53">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="51"/>
       <c r="B167" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C167" s="52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D167" s="53">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="38"/>
       <c r="B168" s="38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D168" s="53">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -7000,13 +7018,13 @@
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G169" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -7017,13 +7035,13 @@
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F170" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="F170" s="45" t="s">
-        <v>241</v>
-      </c>
       <c r="G170" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7034,13 +7052,13 @@
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7051,13 +7069,13 @@
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F172" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G172" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7068,13 +7086,13 @@
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F173" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G173" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7085,34 +7103,34 @@
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F174" s="45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G174" s="45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="38"/>
       <c r="B175" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D175" s="53">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F175" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G175" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -7123,13 +7141,13 @@
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F176" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G176" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -7140,13 +7158,13 @@
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F177" s="45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G177" s="45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7157,13 +7175,13 @@
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F178" s="45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7174,13 +7192,13 @@
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F179" s="45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G179" s="45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7191,13 +7209,13 @@
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F180" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G180" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -7208,19 +7226,19 @@
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F181" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G181" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="56"/>
       <c r="B182" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>45</v>
@@ -7229,7 +7247,7 @@
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F182" s="37" t="s">
         <v>9</v>
@@ -7241,7 +7259,7 @@
     <row r="183" ht="14.25" spans="1:7">
       <c r="A183" s="56"/>
       <c r="B183" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>45</v>
@@ -7250,7 +7268,7 @@
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F183" s="37" t="s">
         <v>9</v>
@@ -7262,16 +7280,16 @@
     <row r="184" spans="1:7">
       <c r="A184" s="56"/>
       <c r="B184" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D184" s="53">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F184" s="37" t="s">
         <v>9</v>
@@ -7283,19 +7301,19 @@
     <row r="185" spans="1:7">
       <c r="A185" s="57"/>
       <c r="B185" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C185" s="58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D185" s="53">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F185" s="59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G185" s="45" t="s">
         <v>9</v>
@@ -7309,13 +7327,13 @@
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G186" s="45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -7326,10 +7344,10 @@
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G187" s="45" t="s">
         <v>9</v>
@@ -7343,13 +7361,13 @@
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -7360,10 +7378,10 @@
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G189" s="45" t="s">
         <v>32</v>
@@ -7377,13 +7395,13 @@
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7394,13 +7412,13 @@
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7411,13 +7429,13 @@
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -7428,13 +7446,13 @@
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -7445,13 +7463,13 @@
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -7462,13 +7480,13 @@
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F195" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -7479,10 +7497,10 @@
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G196" s="45" t="s">
         <v>123</v>
@@ -7496,13 +7514,13 @@
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -7513,13 +7531,13 @@
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -7530,28 +7548,28 @@
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="16"/>
       <c r="B200" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D200" s="53">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F200" s="37" t="s">
         <v>9</v>
@@ -7568,7 +7586,7 @@
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F201" s="37" t="s">
         <v>9</v>
@@ -7585,7 +7603,7 @@
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F202" s="37" t="s">
         <v>9</v>
@@ -7602,7 +7620,7 @@
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F203" s="37" t="s">
         <v>9</v>
@@ -7614,16 +7632,16 @@
     <row r="204" spans="1:7">
       <c r="A204" s="56"/>
       <c r="B204" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D204" s="53">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F204" s="37" t="s">
         <v>9</v>
@@ -7632,18 +7650,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="2:7">
-      <c r="B205" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C205" t="s">
+    <row r="205" spans="1:7">
+      <c r="A205" s="37"/>
+      <c r="B205" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="D205" s="2">
+      <c r="C205" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" s="37">
         <v>204</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>305</v>
+      <c r="E205" s="37" t="s">
+        <v>306</v>
       </c>
       <c r="F205" s="16" t="s">
         <v>32</v>
@@ -7652,8 +7671,160 @@
         <v>32</v>
       </c>
     </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="37"/>
+      <c r="B206" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D206" s="37">
+        <v>205</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="37"/>
+      <c r="B207" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D207" s="37">
+        <v>206</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F207" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" spans="1:7">
+      <c r="A208" s="37"/>
+      <c r="B208" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D208" s="37">
+        <v>207</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F208" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" spans="1:7">
+      <c r="A209" s="37"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="37">
+        <v>208</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F209" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" spans="1:7">
+      <c r="A210" s="37"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37">
+        <v>209</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F210" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" spans="1:7">
+      <c r="A211" s="37"/>
+      <c r="B211" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D211" s="37">
+        <v>210</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F211" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" spans="1:7">
+      <c r="A212" s="37"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="37">
+        <v>211</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F212" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" spans="1:7">
+      <c r="A213" s="37"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="37">
+        <v>212</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F213" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="63">
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
@@ -7673,6 +7844,8 @@
     <mergeCell ref="A175:A181"/>
     <mergeCell ref="A185:A199"/>
     <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B29:B33"/>
@@ -7692,6 +7865,8 @@
     <mergeCell ref="B175:B181"/>
     <mergeCell ref="B185:B199"/>
     <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B211:B213"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="C29:C33"/>
@@ -7711,6 +7886,8 @@
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="C211:C213"/>
   </mergeCells>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7732,7 +7909,7 @@
     <row r="1" spans="1:7">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>187</v>
@@ -7741,7 +7918,7 @@
         <v>122</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>76</v>
@@ -7753,7 +7930,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>187</v>
@@ -7762,7 +7939,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>76</v>
@@ -7774,7 +7951,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>187</v>
@@ -7783,7 +7960,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>107</v>
@@ -7795,7 +7972,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>187</v>
@@ -7804,7 +7981,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>107</v>
@@ -7816,7 +7993,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>187</v>
@@ -7825,10 +8002,10 @@
         <v>126</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>63</v>
@@ -7837,7 +8014,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>187</v>
@@ -7846,10 +8023,10 @@
         <v>127</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>63</v>
@@ -7858,7 +8035,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>187</v>
@@ -7867,10 +8044,10 @@
         <v>128</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>63</v>
@@ -7879,7 +8056,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>187</v>
@@ -7888,10 +8065,10 @@
         <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>151</v>
@@ -7900,7 +8077,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>187</v>
@@ -7909,10 +8086,10 @@
         <v>130</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>63</v>
@@ -7921,7 +8098,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>187</v>
@@ -7930,10 +8107,10 @@
         <v>131</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>63</v>
@@ -7942,7 +8119,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>187</v>
@@ -7951,10 +8128,10 @@
         <v>132</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>63</v>
@@ -7963,7 +8140,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>187</v>
@@ -7972,10 +8149,10 @@
         <v>133</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>151</v>
@@ -7984,7 +8161,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>187</v>
@@ -7993,10 +8170,10 @@
         <v>134</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>63</v>
@@ -8005,7 +8182,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>187</v>
@@ -8014,10 +8191,10 @@
         <v>135</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>63</v>
@@ -8026,7 +8203,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>187</v>
@@ -8035,10 +8212,10 @@
         <v>136</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>63</v>
@@ -8047,7 +8224,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>187</v>
@@ -8056,10 +8233,10 @@
         <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>151</v>
@@ -8089,13 +8266,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" ht="103.5" customHeight="1" spans="2:3">
@@ -8103,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8114,7 +8291,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:3">
@@ -8125,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:3">
@@ -8136,7 +8313,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" ht="78" customHeight="1" spans="1:3">
@@ -8147,7 +8324,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:3">
@@ -8158,7 +8335,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8169,7 +8346,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:3">
@@ -8180,7 +8357,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:3">
@@ -8191,7 +8368,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -8202,7 +8379,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
@@ -8213,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -8224,7 +8401,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -8235,7 +8412,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8246,7 +8423,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
@@ -8257,7 +8434,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:3">
@@ -8268,7 +8445,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
@@ -8279,7 +8456,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
@@ -8290,7 +8467,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
@@ -8301,7 +8478,7 @@
         <v>103</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:3">
@@ -8312,7 +8489,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:3">
@@ -8323,7 +8500,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:3">
@@ -8334,7 +8511,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:3">
@@ -8345,7 +8522,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:3">
@@ -8356,7 +8533,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:3">
@@ -8367,7 +8544,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:3">
@@ -8378,7 +8555,7 @@
         <v>118</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:3">
@@ -8389,7 +8566,7 @@
         <v>128</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:3">
@@ -8400,7 +8577,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:3">
@@ -8411,7 +8588,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8422,7 +8599,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8433,7 +8610,7 @@
         <v>146</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8444,7 +8621,7 @@
         <v>148</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8455,7 +8632,7 @@
         <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8466,7 +8643,7 @@
         <v>152</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8477,7 +8654,7 @@
         <v>153</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8488,7 +8665,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8499,7 +8676,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8507,10 +8684,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8518,10 +8695,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8532,7 +8709,7 @@
         <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8543,7 +8720,7 @@
         <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8576,13 +8753,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8590,16 +8767,16 @@
         <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8607,81 +8784,81 @@
         <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8732,43 +8909,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8776,7 +8953,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -8817,7 +8994,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8858,7 +9035,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -8899,7 +9076,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -8940,7 +9117,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8981,7 +9158,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -9022,7 +9199,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -9063,7 +9240,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -9104,7 +9281,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -9145,7 +9322,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -9186,7 +9363,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9248,19 +9425,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -9688,7 +9865,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B23" s="13">
         <v>3</v>
@@ -9708,7 +9885,7 @@
     </row>
     <row r="24" ht="14.5" customHeight="1" spans="1:6">
       <c r="A24" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
@@ -9728,7 +9905,7 @@
     </row>
     <row r="25" ht="14.5" customHeight="1" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B25" s="13">
         <v>0</v>
@@ -9928,7 +10105,7 @@
     </row>
     <row r="35" ht="14.5" customHeight="1" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B35" s="13">
         <v>5</v>
@@ -9948,7 +10125,7 @@
     </row>
     <row r="36" ht="14.5" customHeight="1" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
@@ -9968,7 +10145,7 @@
     </row>
     <row r="37" ht="14.5" customHeight="1" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -9988,7 +10165,7 @@
     </row>
     <row r="38" ht="14.5" customHeight="1" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -10008,7 +10185,7 @@
     </row>
     <row r="39" ht="14.5" customHeight="1" spans="1:6">
       <c r="A39" s="14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B39" s="13">
         <v>3</v>
@@ -10028,7 +10205,7 @@
     </row>
     <row r="40" ht="14.5" customHeight="1" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B40" s="13">
         <v>5</v>
@@ -10048,7 +10225,7 @@
     </row>
     <row r="41" ht="14.5" customHeight="1" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B41" s="13">
         <v>5</v>
@@ -10068,7 +10245,7 @@
     </row>
     <row r="42" ht="14.5" customHeight="1" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B42" s="13">
         <v>3</v>
@@ -10088,7 +10265,7 @@
     </row>
     <row r="43" ht="14.5" customHeight="1" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B43" s="13">
         <v>3</v>
@@ -10108,7 +10285,7 @@
     </row>
     <row r="44" ht="14.5" customHeight="1" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B44" s="13">
         <v>3</v>
@@ -10188,7 +10365,7 @@
     </row>
     <row r="48" ht="14.5" customHeight="1" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B48" s="13">
         <v>3</v>
@@ -10208,7 +10385,7 @@
     </row>
     <row r="49" ht="14.5" customHeight="1" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B49" s="13">
         <v>3</v>
@@ -10228,7 +10405,7 @@
     </row>
     <row r="50" ht="14.5" customHeight="1" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B50" s="13">
         <v>3</v>
@@ -10248,7 +10425,7 @@
     </row>
     <row r="51" ht="14.5" customHeight="1" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B51" s="13">
         <v>3</v>
@@ -10268,7 +10445,7 @@
     </row>
     <row r="52" ht="14.5" customHeight="1" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
@@ -10288,7 +10465,7 @@
     </row>
     <row r="53" ht="14.5" customHeight="1" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B53" s="13">
         <v>3</v>
@@ -10308,7 +10485,7 @@
     </row>
     <row r="54" ht="14.5" customHeight="1" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B54" s="13">
         <v>3</v>
@@ -10328,7 +10505,7 @@
     </row>
     <row r="55" ht="14.5" customHeight="1" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B55" s="13">
         <v>3</v>
@@ -10348,7 +10525,7 @@
     </row>
     <row r="56" ht="14.5" customHeight="1" spans="1:6">
       <c r="A56" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
@@ -10468,7 +10645,7 @@
     </row>
     <row r="62" ht="14.5" customHeight="1" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
@@ -10488,7 +10665,7 @@
     </row>
     <row r="63" ht="14.5" customHeight="1" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B63" s="13">
         <v>3</v>
@@ -10508,7 +10685,7 @@
     </row>
     <row r="64" ht="14.5" customHeight="1" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B64" s="13">
         <v>3</v>
@@ -10528,7 +10705,7 @@
     </row>
     <row r="65" ht="14.5" customHeight="1" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B65" s="13">
         <v>3</v>
@@ -10548,7 +10725,7 @@
     </row>
     <row r="66" ht="14.5" customHeight="1" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B66" s="13">
         <v>3</v>
@@ -10568,7 +10745,7 @@
     </row>
     <row r="67" ht="14.5" customHeight="1" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B67" s="13">
         <v>3</v>
@@ -10588,7 +10765,7 @@
     </row>
     <row r="68" ht="14.5" customHeight="1" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B68" s="13">
         <v>3</v>
@@ -10608,7 +10785,7 @@
     </row>
     <row r="69" ht="14.5" customHeight="1" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B69" s="13">
         <v>3</v>
@@ -10628,7 +10805,7 @@
     </row>
     <row r="70" ht="14.5" customHeight="1" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B70" s="13">
         <v>3</v>
@@ -10648,7 +10825,7 @@
     </row>
     <row r="71" ht="14.5" customHeight="1" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B71" s="13">
         <v>3</v>
@@ -10668,7 +10845,7 @@
     </row>
     <row r="72" ht="14.5" customHeight="1" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B72" s="13">
         <v>3</v>
@@ -10688,7 +10865,7 @@
     </row>
     <row r="73" ht="14.5" customHeight="1" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B73" s="13">
         <v>3</v>
@@ -10788,7 +10965,7 @@
     </row>
     <row r="78" ht="14.25" spans="1:6">
       <c r="A78" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -10808,7 +10985,7 @@
     </row>
     <row r="79" ht="14.25" spans="1:6">
       <c r="A79" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B79" s="19">
         <v>5</v>
@@ -10828,7 +11005,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:6">
       <c r="A80" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B80" s="19">
         <v>5</v>
@@ -10848,7 +11025,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:6">
       <c r="A81" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B81" s="20">
         <v>0</v>
@@ -10868,7 +11045,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:6">
       <c r="A82" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
@@ -10888,7 +11065,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:6">
       <c r="A83" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B83" s="20">
         <v>0</v>
@@ -10908,7 +11085,7 @@
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -10928,7 +11105,7 @@
     </row>
     <row r="85" ht="14.25" spans="1:6">
       <c r="A85" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -10948,7 +11125,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:6">
       <c r="A86" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B86" s="20">
         <v>0</v>
@@ -10968,7 +11145,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B87" s="20">
         <v>0</v>
@@ -10988,7 +11165,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:6">
       <c r="A88" s="22" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B88" s="20">
         <v>0</v>
@@ -11008,7 +11185,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:6">
       <c r="A89" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B89" s="21">
         <v>0</v>
@@ -11028,7 +11205,7 @@
     </row>
     <row r="90" ht="14.25" spans="1:6">
       <c r="A90" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B90" s="21">
         <v>9</v>
@@ -11056,121 +11233,124 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="15.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.9083333333333" style="2" customWidth="1"/>
-    <col min="4" max="12" width="13.9083333333333" customWidth="1"/>
-    <col min="14" max="14" width="15.9083333333333" customWidth="1"/>
-    <col min="15" max="15" width="18.9083333333333" customWidth="1"/>
-    <col min="17" max="17" width="10.725" customWidth="1"/>
-    <col min="18" max="18" width="11.6333333333333" customWidth="1"/>
-    <col min="19" max="19" width="9.36666666666667" customWidth="1"/>
-    <col min="20" max="20" width="13.275" customWidth="1"/>
-    <col min="21" max="21" width="23.3666666666667" customWidth="1"/>
-    <col min="24" max="24" width="13.4583333333333" customWidth="1"/>
-    <col min="25" max="25" width="18.9083333333333" customWidth="1"/>
-    <col min="26" max="26" width="15.9083333333333" customWidth="1"/>
-    <col min="27" max="27" width="16.4583333333333" customWidth="1"/>
-    <col min="28" max="28" width="13.725" customWidth="1"/>
+    <col min="3" max="4" width="13.9083333333333" style="2" customWidth="1"/>
+    <col min="5" max="13" width="13.9083333333333" customWidth="1"/>
+    <col min="15" max="15" width="15.9083333333333" customWidth="1"/>
+    <col min="16" max="16" width="18.9083333333333" customWidth="1"/>
+    <col min="18" max="18" width="10.725" customWidth="1"/>
+    <col min="19" max="19" width="11.6333333333333" customWidth="1"/>
+    <col min="20" max="20" width="9.36666666666667" customWidth="1"/>
+    <col min="21" max="21" width="13.275" customWidth="1"/>
+    <col min="22" max="22" width="23.3666666666667" customWidth="1"/>
+    <col min="25" max="25" width="13.4583333333333" customWidth="1"/>
+    <col min="26" max="26" width="18.9083333333333" customWidth="1"/>
+    <col min="27" max="27" width="15.9083333333333" customWidth="1"/>
+    <col min="28" max="28" width="16.4583333333333" customWidth="1"/>
+    <col min="29" max="29" width="13.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="3">
+        <v>451</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1" s="3">
         <v>23</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>22</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>21</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>20</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>19</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>18</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>17</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>16</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>12</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>11</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>10</v>
       </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
       <c r="T1">
+        <v>9</v>
+      </c>
+      <c r="U1">
         <v>8</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>7</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>6</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>5</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>4</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>3</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>1</v>
       </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
@@ -11178,10 +11358,12 @@
       <c r="C2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -11189,56 +11371,57 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="5" t="s">
-        <v>452</v>
-      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>469</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>
@@ -11246,87 +11429,92 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>468</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>458</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>486</v>
+        <v>488</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="AB3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>490</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11335,18 +11523,21 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -11355,18 +11546,21 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11375,22 +11569,23 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:28">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:29">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+        <v>493</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="6">
@@ -11399,25 +11594,25 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
       </c>
       <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>1</v>
       </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="R7" s="11">
         <v>0</v>
       </c>
       <c r="S7" s="1">
@@ -11426,10 +11621,10 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
         <v>0</v>
       </c>
       <c r="W7" s="1">
@@ -11438,34 +11633,37 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
         <v>1</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+        <v>494</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="6">
@@ -11474,28 +11672,28 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
         <v>1</v>
       </c>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="1">
@@ -11504,10 +11702,10 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -11516,36 +11714,39 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
         <v>1</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" s="3">
+        <v>495</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>294947</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="6">
@@ -11554,28 +11755,28 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
       <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="11">
         <v>0</v>
       </c>
       <c r="S9" s="1">
@@ -11584,48 +11785,51 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
         <v>0</v>
       </c>
       <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>1</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D10" s="3">
+        <v>496</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
         <v>557315</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="6">
@@ -11634,40 +11838,40 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
       <c r="K10" s="6">
         <v>0</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
         <v>1</v>
       </c>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="11">
         <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>1</v>
       </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
+      <c r="V10" s="11">
         <v>0</v>
       </c>
       <c r="W10" s="1">
@@ -11676,36 +11880,39 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D11" s="3">
+        <v>497</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
         <v>1081603</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="6">
@@ -11714,10 +11921,10 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="K11" s="6">
@@ -11726,16 +11933,16 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
         <v>1</v>
       </c>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="11">
         <v>0</v>
       </c>
       <c r="S11" s="1">
@@ -11744,10 +11951,10 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
         <v>0</v>
       </c>
       <c r="W11" s="1">
@@ -11756,48 +11963,51 @@
       <c r="X11" s="1">
         <v>0</v>
       </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="D12" s="3">
+        <v>498</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
         <v>2130019</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12" s="6">
@@ -11806,16 +12016,16 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
         <v>1</v>
       </c>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="11">
         <v>0</v>
       </c>
       <c r="S12" s="1">
@@ -11824,48 +12034,51 @@
       <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="11">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0</v>
       </c>
       <c r="W12" s="1">
         <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="D13" s="3">
+        <v>499</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
         <v>2130947</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>0</v>
       </c>
       <c r="G13" s="6">
@@ -11874,10 +12087,10 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13" s="6">
@@ -11886,28 +12099,28 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>1</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
         <v>0</v>
       </c>
       <c r="W13" s="1">
@@ -11916,48 +12129,51 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
         <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
         <v>2059</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>0</v>
       </c>
       <c r="K14" s="6">
@@ -11966,28 +12182,28 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1"/>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="11">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="11">
         <v>1</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
       <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
         <v>0</v>
       </c>
       <c r="W14" s="1">
@@ -11996,36 +12212,39 @@
       <c r="X14" s="1">
         <v>0</v>
       </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
         <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D15" s="3">
+        <v>501</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
         <v>8451</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="6">
@@ -12034,10 +12253,10 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="6">
@@ -12046,30 +12265,30 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
         <v>1</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
       </c>
       <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>1</v>
       </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="V15" s="11">
         <v>0</v>
       </c>
       <c r="W15" s="1">
@@ -12078,48 +12297,51 @@
       <c r="X15" s="1">
         <v>0</v>
       </c>
-      <c r="Y15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" s="3">
+        <v>503</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
         <v>4137</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>0</v>
       </c>
       <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="6">
@@ -12128,22 +12350,22 @@
       <c r="L16" s="6">
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
         <v>0</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="R16" s="11">
         <v>0</v>
       </c>
       <c r="S16" s="1">
@@ -12152,48 +12374,51 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="11">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
         <v>0</v>
       </c>
       <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>1</v>
       </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
         <v>1</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
       <c r="AA16" s="1">
         <v>0</v>
       </c>
       <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D17" s="3">
+        <v>504</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
         <v>17665</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>0</v>
       </c>
       <c r="G17" s="6">
@@ -12202,10 +12427,10 @@
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
         <v>0</v>
       </c>
       <c r="K17" s="6">
@@ -12214,34 +12439,34 @@
       <c r="L17" s="6">
         <v>0</v>
       </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>1</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>1</v>
       </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
       <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="11">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="V17" s="11">
         <v>0</v>
       </c>
       <c r="W17" s="1">
@@ -12250,337 +12475,438 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
         <v>0</v>
       </c>
       <c r="AA17" s="1">
         <v>0</v>
       </c>
       <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>502</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>266</v>
+        <v>505</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>506</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="B26" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>509</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>329</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>329</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>513</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>513</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>514</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>514</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34">
+      <c r="A34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
         <v>98315</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="D35">
-        <v>163851</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="D36">
-        <v>294923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>494</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>163851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="D37">
-        <v>557067</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>516</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>294923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>492</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>557067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>497</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>518</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>492</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>493</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>492</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>492</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/matain/IntegrateConfig.xlsx
+++ b/config/project/matain/IntegrateConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="667"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="667" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -2427,9 +2427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2469,22 +2469,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2501,36 +2495,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2550,26 +2537,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2582,15 +2570,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2648,7 +2648,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,37 +2762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2702,79 +2774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,50 +2855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2920,9 +2881,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2942,13 +2938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2956,8 +2956,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,10 +2969,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2984,133 +2984,133 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3610,7 +3610,7 @@
   <sheetPr/>
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A184" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A184" workbookViewId="0">
       <selection activeCell="E223" sqref="E222:E223"/>
     </sheetView>
   </sheetViews>
@@ -11235,8 +11235,8 @@
   <sheetPr/>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11247,15 +11247,16 @@
     <col min="5" max="13" width="13.9083333333333" customWidth="1"/>
     <col min="15" max="15" width="15.9083333333333" customWidth="1"/>
     <col min="16" max="16" width="18.9083333333333" customWidth="1"/>
-    <col min="18" max="18" width="10.725" customWidth="1"/>
+    <col min="17" max="17" width="7.475" customWidth="1"/>
+    <col min="18" max="18" width="20.875" customWidth="1"/>
     <col min="19" max="19" width="11.6333333333333" customWidth="1"/>
     <col min="20" max="20" width="9.36666666666667" customWidth="1"/>
     <col min="21" max="21" width="13.275" customWidth="1"/>
-    <col min="22" max="22" width="23.3666666666667" customWidth="1"/>
+    <col min="22" max="22" width="26.8333333333333" customWidth="1"/>
     <col min="25" max="25" width="13.4583333333333" customWidth="1"/>
     <col min="26" max="26" width="18.9083333333333" customWidth="1"/>
-    <col min="27" max="27" width="15.9083333333333" customWidth="1"/>
-    <col min="28" max="28" width="16.4583333333333" customWidth="1"/>
+    <col min="27" max="27" width="26.3666666666667" customWidth="1"/>
+    <col min="28" max="28" width="16.15" customWidth="1"/>
     <col min="29" max="29" width="13.725" customWidth="1"/>
   </cols>
   <sheetData>

--- a/config/project/matain/IntegrateConfig.xlsx
+++ b/config/project/matain/IntegrateConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\matain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA0BCEBE-4D75-4534-B236-B072D2B4536D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="667" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="537">
   <si>
     <t>组序号</t>
   </si>
@@ -120,6 +126,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -129,6 +136,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>efault</t>
@@ -140,6 +148,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -149,6 +158,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -160,6 +170,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -169,6 +180,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20V</t>
@@ -303,6 +315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,6 +337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,6 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,6 +402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -477,6 +498,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>u</t>
@@ -486,6 +508,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nlock</t>
@@ -500,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,6 +561,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,6 +583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,6 +599,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,6 +610,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,6 +621,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,6 +730,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -707,6 +740,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>elay</t>
@@ -751,6 +785,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -760,6 +795,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>PP测试</t>
@@ -798,6 +834,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Z</t>
@@ -807,6 +844,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -881,6 +919,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -890,6 +929,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>IBO</t>
@@ -1207,6 +1247,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1216,6 +1257,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0710</t>
@@ -1230,6 +1272,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1239,6 +1282,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0706</t>
@@ -1256,6 +1300,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1265,6 +1310,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0707</t>
@@ -1279,6 +1325,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1288,6 +1335,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x070A</t>
@@ -1413,6 +1461,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -1422,6 +1471,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
@@ -1465,6 +1515,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>96/97/98/99/TP1/TP2/TP3/TP4相连对地耐压DC3000V，60秒，漏电流不大于10mA</t>
@@ -1475,6 +1526,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（DCW M2，DC 3kV,10.00mA,60s）</t>
@@ -1486,6 +1538,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">两个枪输出DC+/DC-（4个点）分别对地，绝缘电阻应大于10M欧   </t>
@@ -1496,6 +1549,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(IR M3，1KV)</t>
@@ -1507,6 +1561,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">枪DC+/DC-输出分别对地，耐压AC2500V，60秒，漏电流不大于5mA </t>
@@ -1517,6 +1572,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -1527,6 +1583,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ACW M1，AC 2.5kV,5mA,60s）</t>
@@ -1670,6 +1727,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0x0000</t>
@@ -1679,6 +1737,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -1688,6 +1747,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>001</t>
@@ -1705,6 +1765,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>T</t>
@@ -1714,6 +1775,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YPE</t>
@@ -1758,6 +1820,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -1767,6 +1830,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1904,6 +1968,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1913,6 +1978,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I掩码</t>
@@ -1924,6 +1990,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1933,6 +2000,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O掩码</t>
@@ -1953,6 +2021,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1962,6 +2031,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -1979,6 +2049,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -1988,6 +2059,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>7K8</t>
@@ -2005,6 +2077,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2014,6 +2087,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9K10</t>
@@ -2025,6 +2099,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2034,6 +2109,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5K6</t>
@@ -2048,6 +2124,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2057,6 +2134,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2068,6 +2146,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2077,6 +2156,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2088,6 +2168,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2097,6 +2178,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -2108,6 +2190,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2117,6 +2200,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2128,6 +2212,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -2137,6 +2222,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -2157,6 +2243,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -2166,6 +2253,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -2210,6 +2298,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪2</t>
@@ -2219,6 +2308,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K3K4</t>
@@ -2230,6 +2320,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪2</t>
@@ -2239,6 +2330,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K1K2</t>
@@ -2253,6 +2345,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪1</t>
@@ -2262,6 +2355,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K3K4</t>
@@ -2273,6 +2367,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪1</t>
@@ -2282,6 +2377,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K1K2</t>
@@ -2326,6 +2422,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0x</t>
@@ -2335,6 +2432,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>080B</t>
@@ -2351,12 +2449,6 @@
   </si>
   <si>
     <t>0x4501</t>
-  </si>
-  <si>
-    <t>0x0003</t>
-  </si>
-  <si>
-    <t>0x0006</t>
   </si>
   <si>
     <t>0x0008</t>
@@ -2382,6 +2474,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2391,6 +2484,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0021</t>
@@ -2420,18 +2514,80 @@
   <si>
     <t>0x048103</t>
   </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0005</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电子锁解锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电子锁上锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电子锁上锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电子锁解锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1绝缘检测功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1绝缘检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>matain_insulation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2442,156 +2598,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2599,6 +2640,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2606,10 +2648,24 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2646,140 +2702,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2854,268 +2778,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3152,10 +2825,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,9 +2840,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3191,10 +2864,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3218,7 +2891,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3236,115 +2984,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3602,31 +3270,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E223" sqref="E222:E223"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09166666666667" customWidth="1"/>
-    <col min="2" max="2" width="34.275" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.725" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.275" customWidth="1"/>
-    <col min="5" max="5" width="57.4583333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="57.453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.725" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.275" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -3672,7 +3340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -3695,7 +3363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -3718,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -3741,7 +3409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>1</v>
       </c>
@@ -3764,7 +3432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>1</v>
       </c>
@@ -3787,7 +3455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>1</v>
       </c>
@@ -3810,7 +3478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>1</v>
       </c>
@@ -3833,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -3856,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>1</v>
       </c>
@@ -3879,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>1</v>
       </c>
@@ -3902,7 +3570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -3925,7 +3593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -3948,12 +3616,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -3969,10 +3637,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3986,10 +3654,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -4003,10 +3671,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -4020,10 +3688,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -4037,7 +3705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>1</v>
       </c>
@@ -4060,7 +3728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>1</v>
       </c>
@@ -4083,12 +3751,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -4104,10 +3772,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -4121,10 +3789,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -4138,10 +3806,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -4155,10 +3823,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -4172,7 +3840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="16" t="s">
         <v>42</v>
@@ -4193,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="23" t="s">
         <v>43</v>
@@ -4214,12 +3882,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="66" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="22">
@@ -4235,10 +3903,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -4252,10 +3920,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -4269,10 +3937,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -4286,10 +3954,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
@@ -4303,12 +3971,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
@@ -4324,10 +3992,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
@@ -4341,12 +4009,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="63" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="22">
@@ -4362,10 +4030,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
@@ -4379,12 +4047,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="37"/>
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="22">
@@ -4400,10 +4068,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
@@ -4417,18 +4085,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="22">
         <v>39</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="38" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -4438,14 +4106,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="38" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="37" t="s">
@@ -4455,14 +4123,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="16" t="s">
@@ -4472,14 +4140,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="37" t="s">
@@ -4489,10 +4157,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
@@ -4506,12 +4174,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="37">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="56">
         <v>13</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="22">
@@ -4527,7 +4195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="16" t="s">
         <v>69</v>
@@ -4548,7 +4216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
@@ -4569,7 +4237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="15" t="s">
         <v>72</v>
@@ -4590,12 +4258,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="69" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="22">
@@ -4611,10 +4279,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -4628,10 +4296,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -4645,7 +4313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="29" t="s">
         <v>81</v>
@@ -4666,7 +4334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="29" t="s">
         <v>84</v>
@@ -4687,7 +4355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" ht="17.5" customHeight="1" spans="1:7">
+    <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="16" t="s">
         <v>86</v>
@@ -4708,7 +4376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="16" t="s">
         <v>88</v>
@@ -4729,12 +4397,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:7">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="22">
@@ -4750,44 +4418,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="45" t="s">
+      <c r="F57" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="45" t="s">
+      <c r="F58" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
@@ -4801,44 +4469,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="45" t="s">
+      <c r="F60" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:7">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="45" t="s">
+      <c r="F61" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:7">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -4852,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="16" t="s">
         <v>103</v>
@@ -4873,7 +4541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="16" t="s">
         <v>93</v>
@@ -4894,12 +4562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:7">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="69" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="22">
@@ -4915,10 +4583,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:7">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
@@ -4932,10 +4600,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" ht="17.5" customHeight="1" spans="1:7">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
+    <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
@@ -4949,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" s="29" t="s">
         <v>112</v>
@@ -4970,7 +4638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" s="29" t="s">
         <v>114</v>
@@ -4991,7 +4659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="16" t="s">
         <v>115</v>
@@ -5012,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="16" t="s">
         <v>116</v>
@@ -5033,12 +4701,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="57"/>
+      <c r="B72" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="22">
@@ -5054,44 +4722,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:7">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="45" t="s">
+      <c r="F73" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="45" t="s">
+      <c r="G73" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:7">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="45" t="s">
+      <c r="G74" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:7">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -5105,44 +4773,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:7">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="45" t="s">
+      <c r="G76" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:7">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:7">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -5156,7 +4824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="37"/>
       <c r="B79" s="16" t="s">
         <v>128</v>
@@ -5177,7 +4845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="16" t="s">
         <v>119</v>
@@ -5198,18 +4866,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="63"/>
+      <c r="B81" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="63" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="22">
         <v>80</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="40" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="37" t="s">
@@ -5219,14 +4887,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="40" t="s">
         <v>132</v>
       </c>
       <c r="F82" s="37" t="s">
@@ -5236,14 +4904,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:7">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="40" t="s">
         <v>133</v>
       </c>
       <c r="F83" s="37" t="s">
@@ -5253,14 +4921,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:7">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="56"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="40" t="s">
         <v>134</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -5270,7 +4938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
       <c r="B85" s="16" t="s">
         <v>135</v>
@@ -5291,7 +4959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
       <c r="B86" s="16" t="s">
         <v>136</v>
@@ -5312,7 +4980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
       <c r="B87" s="16" t="s">
         <v>137</v>
@@ -5333,7 +5001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
       <c r="B88" s="16" t="s">
         <v>138</v>
@@ -5354,7 +5022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="16" t="s">
         <v>141</v>
@@ -5375,7 +5043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
       <c r="B90" s="16" t="s">
         <v>142</v>
@@ -5396,7 +5064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="16" t="s">
         <v>144</v>
@@ -5417,7 +5085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="16" t="s">
         <v>146</v>
@@ -5438,7 +5106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="16" t="s">
         <v>148</v>
@@ -5459,7 +5127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="16" t="s">
         <v>150</v>
@@ -5480,7 +5148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="16" t="s">
         <v>152</v>
@@ -5501,7 +5169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="16" t="s">
         <v>153</v>
@@ -5522,7 +5190,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22" t="s">
         <v>154</v>
@@ -5543,7 +5211,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22" t="s">
         <v>156</v>
@@ -5564,12 +5232,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
@@ -5585,10 +5253,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
@@ -5602,10 +5270,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
@@ -5619,12 +5287,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="47"/>
-      <c r="B102" s="48" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="48" t="s">
+      <c r="C102" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D102" s="22">
@@ -5640,12 +5308,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="70" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="22">
@@ -5661,10 +5329,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="48"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="71"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5678,10 +5346,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="48"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="71"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="71"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -5695,8 +5363,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A106" s="48"/>
+    <row r="106" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
       <c r="B106" s="16" t="s">
         <v>164</v>
       </c>
@@ -5716,8 +5384,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A107" s="48"/>
+    <row r="107" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
       <c r="B107" s="22" t="s">
         <v>166</v>
       </c>
@@ -5737,8 +5405,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" s="33" customFormat="1" spans="1:7">
-      <c r="A108" s="48"/>
+    <row r="108" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
       <c r="B108" s="22" t="s">
         <v>168</v>
       </c>
@@ -5758,8 +5426,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" s="33" customFormat="1" spans="1:7">
-      <c r="A109" s="48"/>
+    <row r="109" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
       <c r="B109" s="22" t="s">
         <v>169</v>
       </c>
@@ -5779,8 +5447,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" s="33" customFormat="1" spans="1:7">
-      <c r="A110" s="48"/>
+    <row r="110" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42"/>
       <c r="B110" s="22" t="s">
         <v>170</v>
       </c>
@@ -5800,8 +5468,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
-      <c r="A111" s="48"/>
+    <row r="111" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42"/>
       <c r="B111" s="16" t="s">
         <v>171</v>
       </c>
@@ -5821,8 +5489,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
-      <c r="A112" s="48"/>
+    <row r="112" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42"/>
       <c r="B112" s="16" t="s">
         <v>172</v>
       </c>
@@ -5842,7 +5510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="16" t="s">
         <v>173</v>
@@ -5863,7 +5531,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="16" t="s">
         <v>175</v>
@@ -5884,7 +5552,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="16" t="s">
         <v>176</v>
@@ -5905,7 +5573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="16" t="s">
         <v>177</v>
@@ -5926,7 +5594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="16" t="s">
         <v>178</v>
@@ -5947,7 +5615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="16" t="s">
         <v>179</v>
@@ -5968,7 +5636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="16" t="s">
         <v>181</v>
@@ -5989,7 +5657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
         <v>183</v>
@@ -6010,7 +5678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
         <v>184</v>
@@ -6031,7 +5699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
         <v>185</v>
@@ -6052,7 +5720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:7">
+    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
         <v>186</v>
@@ -6073,7 +5741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:7">
+    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
         <v>188</v>
@@ -6094,7 +5762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
         <v>189</v>
@@ -6115,7 +5783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
         <v>190</v>
@@ -6136,7 +5804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
         <v>191</v>
@@ -6157,7 +5825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
         <v>192</v>
@@ -6178,7 +5846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
         <v>194</v>
@@ -6199,7 +5867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
         <v>195</v>
@@ -6220,7 +5888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
         <v>196</v>
@@ -6241,7 +5909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
         <v>197</v>
@@ -6262,7 +5930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
         <v>198</v>
@@ -6283,7 +5951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
         <v>199</v>
@@ -6304,7 +5972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
         <v>200</v>
@@ -6325,7 +5993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
         <v>201</v>
@@ -6346,7 +6014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
         <v>202</v>
@@ -6367,7 +6035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
         <v>203</v>
@@ -6388,7 +6056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
         <v>204</v>
@@ -6409,7 +6077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
         <v>205</v>
@@ -6430,7 +6098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
         <v>206</v>
@@ -6451,7 +6119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
         <v>207</v>
@@ -6472,7 +6140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
         <v>208</v>
@@ -6493,7 +6161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
         <v>209</v>
@@ -6514,7 +6182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
         <v>210</v>
@@ -6535,7 +6203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
         <v>211</v>
@@ -6556,7 +6224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
         <v>212</v>
@@ -6577,7 +6245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
         <v>213</v>
@@ -6598,7 +6266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
         <v>214</v>
@@ -6619,7 +6287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
         <v>215</v>
@@ -6640,7 +6308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
         <v>216</v>
@@ -6661,7 +6329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
         <v>217</v>
@@ -6682,70 +6350,70 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:7">
-      <c r="A153" s="49"/>
-      <c r="B153" s="49" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="72"/>
+      <c r="B153" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C153" s="37" t="s">
+      <c r="C153" s="56" t="s">
         <v>220</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
-      <c r="E153" s="46" t="s">
+      <c r="E153" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="F153" s="45" t="s">
+      <c r="F153" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G153" s="45" t="s">
+      <c r="G153" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="49"/>
-      <c r="B154" s="49"/>
-      <c r="C154" s="37"/>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="72"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="56"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
-      <c r="E154" s="50" t="s">
+      <c r="E154" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F154" s="45" t="s">
+      <c r="F154" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G154" s="45" t="s">
+      <c r="G154" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="49"/>
-      <c r="B155" s="49"/>
-      <c r="C155" s="37"/>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="72"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="56"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
-      <c r="E155" s="50" t="s">
+      <c r="E155" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="F155" s="45" t="s">
+      <c r="F155" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G155" s="45" t="s">
+      <c r="G155" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="51"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="44"/>
       <c r="B156" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D156" s="53">
+      <c r="D156" s="46">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
@@ -6758,15 +6426,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="51"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
       <c r="B157" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C157" s="52" t="s">
+      <c r="C157" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D157" s="53">
+      <c r="D157" s="46">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
@@ -6779,15 +6447,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="51"/>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
       <c r="B158" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D158" s="53">
+      <c r="D158" s="46">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -6800,15 +6468,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="51"/>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
       <c r="B159" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D159" s="53">
+      <c r="D159" s="46">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
@@ -6821,15 +6489,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="51"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
       <c r="B160" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C160" s="52" t="s">
+      <c r="C160" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D160" s="53">
+      <c r="D160" s="46">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -6842,15 +6510,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="51"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
       <c r="B161" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D161" s="46">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
@@ -6863,15 +6531,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="51"/>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
       <c r="B162" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D162" s="53">
+      <c r="D162" s="46">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
@@ -6884,15 +6552,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="51"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
       <c r="B163" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C163" s="52" t="s">
+      <c r="C163" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D163" s="53">
+      <c r="D163" s="46">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
@@ -6905,15 +6573,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="51"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
       <c r="B164" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="52" t="s">
+      <c r="C164" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D164" s="53">
+      <c r="D164" s="46">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
@@ -6926,15 +6594,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="51"/>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
       <c r="B165" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D165" s="53">
+      <c r="D165" s="46">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
@@ -6947,15 +6615,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="51"/>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
       <c r="B166" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C166" s="52" t="s">
+      <c r="C166" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D166" s="53">
+      <c r="D166" s="46">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
@@ -6968,15 +6636,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="51"/>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
       <c r="B167" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D167" s="53">
+      <c r="D167" s="46">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
@@ -6989,261 +6657,261 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="38"/>
-      <c r="B168" s="38" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="57"/>
+      <c r="B168" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="D168" s="53">
+      <c r="D168" s="46">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F168" s="45" t="s">
+      <c r="F168" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G168" s="45" t="s">
+      <c r="G168" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="39"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="53">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="64"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="46">
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F169" s="45" t="s">
+      <c r="F169" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="G169" s="45" t="s">
+      <c r="G169" s="39" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="39"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="53">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="64"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="46">
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F170" s="45" t="s">
+      <c r="F170" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="G170" s="45" t="s">
+      <c r="G170" s="39" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="39"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="53">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="64"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="46">
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F171" s="45" t="s">
+      <c r="F171" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="G171" s="45" t="s">
+      <c r="G171" s="39" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="39"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="53">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="64"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="46">
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F172" s="45" t="s">
+      <c r="F172" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="G172" s="45" t="s">
+      <c r="G172" s="39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="39"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="53">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="64"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="46">
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F173" s="45" t="s">
+      <c r="F173" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="G173" s="45" t="s">
+      <c r="G173" s="39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="40"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="53">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="65"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="46">
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F174" s="45" t="s">
+      <c r="F174" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="G174" s="45" t="s">
+      <c r="G174" s="39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="38"/>
-      <c r="B175" s="38" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="57"/>
+      <c r="B175" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="D175" s="53">
+      <c r="D175" s="46">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F175" s="45" t="s">
+      <c r="F175" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G175" s="45" t="s">
+      <c r="G175" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="39"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="53">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="64"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="46">
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F176" s="45" t="s">
+      <c r="F176" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="G176" s="45" t="s">
+      <c r="G176" s="39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="39"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="54"/>
-      <c r="D177" s="53">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="64"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="46">
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F177" s="45" t="s">
+      <c r="F177" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="G177" s="45" t="s">
+      <c r="G177" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="39"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="54"/>
-      <c r="D178" s="53">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="64"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="46">
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F178" s="45" t="s">
+      <c r="F178" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="G178" s="45" t="s">
+      <c r="G178" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="39"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
-      <c r="D179" s="53">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="64"/>
+      <c r="B179" s="58"/>
+      <c r="C179" s="58"/>
+      <c r="D179" s="46">
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F179" s="45" t="s">
+      <c r="F179" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="G179" s="45" t="s">
+      <c r="G179" s="39" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="39"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="53">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="64"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="46">
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F180" s="45" t="s">
+      <c r="F180" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="G180" s="45" t="s">
+      <c r="G180" s="39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="40"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="53">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="65"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="46">
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F181" s="45" t="s">
+      <c r="F181" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G181" s="45" t="s">
+      <c r="G181" s="39" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="56"/>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="47"/>
       <c r="B182" s="16" t="s">
         <v>258</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D182" s="53">
+      <c r="D182" s="46">
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
@@ -7256,15 +6924,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:7">
-      <c r="A183" s="56"/>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="47"/>
       <c r="B183" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="53">
+      <c r="D183" s="46">
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
@@ -7277,15 +6945,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="56"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="47"/>
       <c r="B184" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C184" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="D184" s="53">
+      <c r="D184" s="46">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
@@ -7298,32 +6966,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="57"/>
-      <c r="B185" s="38" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="73"/>
+      <c r="B185" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="C185" s="58" t="s">
+      <c r="C185" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="D185" s="53">
+      <c r="D185" s="46">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F185" s="59" t="s">
+      <c r="F185" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G185" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="39"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="53">
+      <c r="G185" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="64"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="61"/>
+      <c r="D186" s="46">
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
@@ -7332,15 +7000,15 @@
       <c r="F186" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="G186" s="45" t="s">
+      <c r="G186" s="39" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="39"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="53">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="64"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="61"/>
+      <c r="D187" s="46">
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
@@ -7349,15 +7017,15 @@
       <c r="F187" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="G187" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="39"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="53">
+      <c r="G187" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="64"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="46">
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
@@ -7366,15 +7034,15 @@
       <c r="F188" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="G188" s="45" t="s">
+      <c r="G188" s="39" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="39"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="53">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="64"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="46">
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -7383,15 +7051,15 @@
       <c r="F189" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="G189" s="45" t="s">
+      <c r="G189" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="39"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="53">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="64"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="61"/>
+      <c r="D190" s="46">
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
@@ -7400,15 +7068,15 @@
       <c r="F190" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="G190" s="45" t="s">
+      <c r="G190" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="39"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="53">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="64"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="46">
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
@@ -7417,15 +7085,15 @@
       <c r="F191" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="G191" s="45" t="s">
+      <c r="G191" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="39"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="53">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="64"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="61"/>
+      <c r="D192" s="46">
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
@@ -7434,15 +7102,15 @@
       <c r="F192" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G192" s="45" t="s">
+      <c r="G192" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="39"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="53">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="64"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="46">
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
@@ -7451,15 +7119,15 @@
       <c r="F193" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G193" s="45" t="s">
+      <c r="G193" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="39"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="53">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="64"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="46">
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
@@ -7468,15 +7136,15 @@
       <c r="F194" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="G194" s="45" t="s">
+      <c r="G194" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="39"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="53">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="64"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="46">
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
@@ -7485,15 +7153,15 @@
       <c r="F195" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G195" s="45" t="s">
+      <c r="G195" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="39"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="53">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="64"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="46">
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
@@ -7502,15 +7170,15 @@
       <c r="F196" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G196" s="45" t="s">
+      <c r="G196" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="39"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="53">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="64"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="61"/>
+      <c r="D197" s="46">
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -7519,15 +7187,15 @@
       <c r="F197" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G197" s="45" t="s">
+      <c r="G197" s="39" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="39"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="53">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="64"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="61"/>
+      <c r="D198" s="46">
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
@@ -7536,15 +7204,15 @@
       <c r="F198" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="G198" s="45" t="s">
+      <c r="G198" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="40"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="53">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="65"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="62"/>
+      <c r="D199" s="46">
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
@@ -7553,19 +7221,19 @@
       <c r="F199" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G199" s="45" t="s">
+      <c r="G199" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="16"/>
-      <c r="B200" s="16" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="63"/>
+      <c r="B200" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="C200" s="16" t="s">
+      <c r="C200" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="D200" s="53">
+      <c r="D200" s="46">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
@@ -7578,11 +7246,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="16"/>
-      <c r="B201" s="16"/>
-      <c r="C201" s="16"/>
-      <c r="D201" s="53">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="63"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="63"/>
+      <c r="D201" s="46">
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
@@ -7595,11 +7263,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="16"/>
-      <c r="B202" s="16"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="53">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="63"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="46">
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
@@ -7612,11 +7280,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="53">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="63"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="46">
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
@@ -7629,15 +7297,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="56"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="47"/>
       <c r="B204" s="37" t="s">
         <v>305</v>
       </c>
       <c r="C204" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D204" s="53">
+      <c r="D204" s="46">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
@@ -7650,7 +7318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="37"/>
       <c r="B205" s="37" t="s">
         <v>306</v>
@@ -7671,7 +7339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="37"/>
       <c r="B206" s="37" t="s">
         <v>308</v>
@@ -7688,11 +7356,11 @@
       <c r="F206" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G206" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="G206" s="49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="37"/>
       <c r="B207" s="37" t="s">
         <v>183</v>
@@ -7709,16 +7377,16 @@
       <c r="F207" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G207" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25" spans="1:7">
-      <c r="A208" s="37"/>
-      <c r="B208" s="37" t="s">
+      <c r="G207" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="56"/>
+      <c r="B208" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C208" s="37" t="s">
+      <c r="C208" s="56" t="s">
         <v>309</v>
       </c>
       <c r="D208" s="37">
@@ -7727,34 +7395,34 @@
       <c r="E208" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F208" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G208" s="45" t="s">
+      <c r="F208" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" ht="14.25" spans="1:7">
-      <c r="A209" s="37"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="37"/>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="56"/>
+      <c r="B209" s="56"/>
+      <c r="C209" s="56"/>
       <c r="D209" s="37">
         <v>208</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F209" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G209" s="45" t="s">
+      <c r="F209" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="210" ht="14.25" spans="1:7">
-      <c r="A210" s="37"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="37"/>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="56"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="56"/>
       <c r="D210" s="37">
         <v>209</v>
       </c>
@@ -7768,12 +7436,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" ht="14.25" spans="1:7">
-      <c r="A211" s="37"/>
-      <c r="B211" s="37" t="s">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="56"/>
+      <c r="B211" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C211" s="37" t="s">
+      <c r="C211" s="56" t="s">
         <v>309</v>
       </c>
       <c r="D211" s="37">
@@ -7782,34 +7450,34 @@
       <c r="E211" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F211" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G211" s="45" t="s">
+      <c r="F211" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="212" ht="14.25" spans="1:7">
-      <c r="A212" s="37"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="37"/>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="56"/>
+      <c r="B212" s="56"/>
+      <c r="C212" s="56"/>
       <c r="D212" s="37">
         <v>211</v>
       </c>
       <c r="E212" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F212" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G212" s="45" t="s">
+      <c r="F212" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="213" ht="14.25" spans="1:7">
-      <c r="A213" s="37"/>
-      <c r="B213" s="37"/>
-      <c r="C213" s="37"/>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="56"/>
+      <c r="B213" s="56"/>
+      <c r="C213" s="56"/>
       <c r="D213" s="37">
         <v>212</v>
       </c>
@@ -7820,6 +7488,132 @@
         <v>9</v>
       </c>
       <c r="G213" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="47"/>
+      <c r="B214" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C214" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D214" s="51">
+        <v>213</v>
+      </c>
+      <c r="E214" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="F214" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="49" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="47"/>
+      <c r="B215" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D215" s="51">
+        <v>214</v>
+      </c>
+      <c r="E215" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="F215" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="47"/>
+      <c r="B216" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="C216" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D216" s="51">
+        <v>215</v>
+      </c>
+      <c r="E216" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="F216" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="49" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="47"/>
+      <c r="B217" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D217" s="51">
+        <v>216</v>
+      </c>
+      <c r="E217" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="F217" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="54"/>
+      <c r="B218" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="C218" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="D218" s="55">
+        <v>217</v>
+      </c>
+      <c r="E218" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F218" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="54"/>
+      <c r="B219" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="D219" s="55">
+        <v>218</v>
+      </c>
+      <c r="E219" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F219" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7882,31 +7676,31 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C211:C213"/>
     <mergeCell ref="C168:C174"/>
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="C200:C203"/>
     <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C211:C213"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
         <v>310</v>
@@ -7927,7 +7721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
         <v>312</v>
@@ -7948,7 +7742,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
         <v>313</v>
@@ -7969,7 +7763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
         <v>315</v>
@@ -7990,7 +7784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
         <v>316</v>
@@ -8011,7 +7805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
         <v>318</v>
@@ -8032,7 +7826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
         <v>319</v>
@@ -8053,7 +7847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
         <v>320</v>
@@ -8074,7 +7868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
         <v>321</v>
@@ -8095,7 +7889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
         <v>324</v>
@@ -8116,7 +7910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
         <v>325</v>
@@ -8137,7 +7931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
         <v>326</v>
@@ -8158,7 +7952,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
         <v>327</v>
@@ -8179,7 +7973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
         <v>330</v>
@@ -8200,7 +7994,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
         <v>331</v>
@@ -8221,7 +8015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
         <v>332</v>
@@ -8243,28 +8037,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.275" customWidth="1"/>
-    <col min="2" max="2" width="27.0916666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -8275,7 +8068,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" ht="103.5" customHeight="1" spans="2:3">
+    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -8283,7 +8076,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8294,7 +8087,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8305,7 +8098,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8316,7 +8109,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8327,7 +8120,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8338,7 +8131,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8349,7 +8142,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:3">
+    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8360,7 +8153,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8371,7 +8164,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8382,7 +8175,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8393,7 +8186,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8404,7 +8197,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8415,7 +8208,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -8426,7 +8219,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8437,7 +8230,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -8448,7 +8241,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -8459,7 +8252,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -8470,7 +8263,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -8481,7 +8274,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -8492,7 +8285,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -8503,7 +8296,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -8514,7 +8307,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -8525,7 +8318,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -8536,7 +8329,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -8547,7 +8340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -8558,7 +8351,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -8569,7 +8362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -8580,7 +8373,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -8591,7 +8384,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -8602,7 +8395,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8613,7 +8406,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -8624,7 +8417,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -8635,7 +8428,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -8646,7 +8439,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -8657,7 +8450,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -8668,7 +8461,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -8679,7 +8472,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -8690,7 +8483,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -8701,7 +8494,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8712,7 +8505,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8724,31 +8517,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.4583333333333" customWidth="1"/>
-    <col min="3" max="3" width="24.9083333333333" customWidth="1"/>
-    <col min="4" max="4" width="21.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="27.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8762,7 +8554,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>138</v>
       </c>
@@ -8779,7 +8571,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>142</v>
       </c>
@@ -8793,7 +8585,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>381</v>
       </c>
@@ -8810,7 +8602,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>385</v>
       </c>
@@ -8827,7 +8619,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>388</v>
       </c>
@@ -8844,7 +8636,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>391</v>
       </c>
@@ -8861,53 +8653,52 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.0916666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.4583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>394</v>
       </c>
@@ -8948,7 +8739,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
@@ -8989,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -9030,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
@@ -9071,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
@@ -9112,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -9153,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
@@ -9194,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -9235,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
@@ -9276,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -9317,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -9358,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -9400,27 +9191,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -9440,7 +9230,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -9460,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -9480,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -9500,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -9520,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -9540,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -9560,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
@@ -9581,7 +9371,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
@@ -9602,7 +9392,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" ht="14.25" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
@@ -9623,7 +9413,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>86</v>
       </c>
@@ -9643,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>115</v>
       </c>
@@ -9663,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>95</v>
       </c>
@@ -9683,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
@@ -9703,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>99</v>
       </c>
@@ -9723,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
@@ -9743,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
@@ -9763,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>124</v>
       </c>
@@ -9783,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>131</v>
       </c>
@@ -9803,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>132</v>
       </c>
@@ -9823,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>133</v>
       </c>
@@ -9843,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>134</v>
       </c>
@@ -9863,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>414</v>
       </c>
@@ -9883,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="14.5" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>415</v>
       </c>
@@ -9903,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="14.5" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>416</v>
       </c>
@@ -9923,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="14.5" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
@@ -9943,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="14.5" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -9963,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.5" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -9983,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.5" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -10003,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="14.5" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>49</v>
       </c>
@@ -10023,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -10043,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
@@ -10063,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>56</v>
       </c>
@@ -10083,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="14.5" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>137</v>
       </c>
@@ -10103,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="14.5" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>417</v>
       </c>
@@ -10123,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>418</v>
       </c>
@@ -10143,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="14.5" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>419</v>
       </c>
@@ -10163,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="14.5" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>420</v>
       </c>
@@ -10183,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="14.5" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>421</v>
       </c>
@@ -10203,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.5" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>422</v>
       </c>
@@ -10223,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.5" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>423</v>
       </c>
@@ -10243,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>424</v>
       </c>
@@ -10263,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>425</v>
       </c>
@@ -10283,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>426</v>
       </c>
@@ -10303,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="14.5" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -10323,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="14.5" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>113</v>
       </c>
@@ -10343,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="14.5" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>135</v>
       </c>
@@ -10363,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="14.5" customHeight="1" spans="1:6">
+    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>427</v>
       </c>
@@ -10383,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="14.5" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>428</v>
       </c>
@@ -10403,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.5" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>429</v>
       </c>
@@ -10423,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="14.5" customHeight="1" spans="1:6">
+    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>430</v>
       </c>
@@ -10443,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="14.5" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>431</v>
       </c>
@@ -10463,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="14.5" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>432</v>
       </c>
@@ -10483,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="14.5" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>433</v>
       </c>
@@ -10503,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="14.5" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>434</v>
       </c>
@@ -10523,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="14.5" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>435</v>
       </c>
@@ -10543,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.5" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>173</v>
       </c>
@@ -10563,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.5" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>175</v>
       </c>
@@ -10583,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.5" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>176</v>
       </c>
@@ -10603,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.5" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>177</v>
       </c>
@@ -10623,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="14.5" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>178</v>
       </c>
@@ -10643,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="14.5" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>436</v>
       </c>
@@ -10663,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.5" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>437</v>
       </c>
@@ -10683,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.5" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>438</v>
       </c>
@@ -10703,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="14.5" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>439</v>
       </c>
@@ -10723,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.5" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>440</v>
       </c>
@@ -10743,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.5" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>441</v>
       </c>
@@ -10763,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.5" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>442</v>
       </c>
@@ -10783,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="14.5" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>443</v>
       </c>
@@ -10803,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.5" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>444</v>
       </c>
@@ -10823,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="14.5" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>445</v>
       </c>
@@ -10843,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="14.5" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>446</v>
       </c>
@@ -10863,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="14.5" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>447</v>
       </c>
@@ -10883,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="14.5" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>145</v>
       </c>
@@ -10903,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="14.5" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>147</v>
       </c>
@@ -10923,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="14.5" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>149</v>
       </c>
@@ -10943,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="14.5" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>161</v>
       </c>
@@ -10963,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>221</v>
       </c>
@@ -10983,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>223</v>
       </c>
@@ -11003,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>224</v>
       </c>
@@ -11023,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>240</v>
       </c>
@@ -11043,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>241</v>
       </c>
@@ -11063,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>243</v>
       </c>
@@ -11083,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>244</v>
       </c>
@@ -11103,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>246</v>
       </c>
@@ -11123,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>248</v>
       </c>
@@ -11143,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>250</v>
       </c>
@@ -11163,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>448</v>
       </c>
@@ -11183,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
         <v>259</v>
       </c>
@@ -11203,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
         <v>260</v>
       </c>
@@ -11224,43 +11014,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView topLeftCell="A36" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.0916666666667" customWidth="1"/>
-    <col min="3" max="4" width="13.9083333333333" style="2" customWidth="1"/>
-    <col min="5" max="13" width="13.9083333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.9083333333333" customWidth="1"/>
-    <col min="16" max="16" width="18.9083333333333" customWidth="1"/>
-    <col min="17" max="17" width="7.475" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="11.6333333333333" customWidth="1"/>
-    <col min="20" max="20" width="9.36666666666667" customWidth="1"/>
-    <col min="21" max="21" width="13.275" customWidth="1"/>
-    <col min="22" max="22" width="26.8333333333333" customWidth="1"/>
-    <col min="25" max="25" width="13.4583333333333" customWidth="1"/>
-    <col min="26" max="26" width="18.9083333333333" customWidth="1"/>
-    <col min="27" max="27" width="26.3666666666667" customWidth="1"/>
-    <col min="28" max="28" width="16.15" customWidth="1"/>
-    <col min="29" max="29" width="13.725" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="4" width="13.90625" style="2" customWidth="1"/>
+    <col min="5" max="13" width="13.90625" customWidth="1"/>
+    <col min="15" max="15" width="15.90625" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" customWidth="1"/>
+    <col min="18" max="18" width="20.90625" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" customWidth="1"/>
+    <col min="22" max="22" width="28" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" customWidth="1"/>
+    <col min="26" max="26" width="18.90625" customWidth="1"/>
+    <col min="27" max="27" width="26.36328125" customWidth="1"/>
+    <col min="28" max="28" width="16.1796875" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>449</v>
       </c>
@@ -11349,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>454</v>
       </c>
@@ -11420,7 +11209,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>471</v>
       </c>
@@ -11503,7 +11292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>317</v>
       </c>
@@ -11526,7 +11315,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>322</v>
       </c>
@@ -11549,7 +11338,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>328</v>
       </c>
@@ -11572,7 +11361,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:29">
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
@@ -11650,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
@@ -11731,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
@@ -11814,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>177</v>
       </c>
@@ -11897,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
@@ -11980,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -12063,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
@@ -12146,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -12229,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
@@ -12314,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -12403,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -12492,35 +12281,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>502</v>
+      <c r="B18" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>520</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>506</v>
+      <c r="B19" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>521</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>216</v>
       </c>
@@ -12534,63 +12323,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>191</v>
       </c>
@@ -12598,13 +12387,13 @@
         <v>267</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>192</v>
       </c>
@@ -12612,13 +12401,13 @@
         <v>267</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -12632,7 +12421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>195</v>
       </c>
@@ -12646,7 +12435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>196</v>
       </c>
@@ -12654,13 +12443,13 @@
         <v>270</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>197</v>
       </c>
@@ -12668,13 +12457,13 @@
         <v>270</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>198</v>
       </c>
@@ -12682,13 +12471,13 @@
         <v>323</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>199</v>
       </c>
@@ -12696,13 +12485,13 @@
         <v>323</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
@@ -12710,13 +12499,13 @@
         <v>329</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>201</v>
       </c>
@@ -12724,13 +12513,13 @@
         <v>329</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>225</v>
       </c>
@@ -12747,7 +12536,7 @@
         <v>98315</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>228</v>
       </c>
@@ -12764,7 +12553,7 @@
         <v>163851</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
@@ -12772,7 +12561,7 @@
         <v>492</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -12781,7 +12570,7 @@
         <v>294923</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>230</v>
       </c>
@@ -12789,7 +12578,7 @@
         <v>492</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
@@ -12798,7 +12587,7 @@
         <v>557067</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>231</v>
       </c>
@@ -12812,7 +12601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>232</v>
       </c>
@@ -12820,13 +12609,13 @@
         <v>492</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>233</v>
       </c>
@@ -12834,13 +12623,13 @@
         <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>234</v>
       </c>
@@ -12848,13 +12637,13 @@
         <v>492</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>235</v>
       </c>
@@ -12868,7 +12657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>236</v>
       </c>
@@ -12882,7 +12671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>237</v>
       </c>
@@ -12890,13 +12679,13 @@
         <v>492</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>238</v>
       </c>
@@ -12910,9 +12699,53 @@
         <v>9</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="B47" t="s">
+        <v>525</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>527</v>
+      </c>
+      <c r="B48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="B49" t="s">
+        <v>526</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="B50" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/matain/IntegrateConfig.xlsx
+++ b/config/project/matain/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\matain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA0BCEBE-4D75-4534-B236-B072D2B4536D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E3FED2FA-269E-4C0B-A37D-B5C2C3F9B705}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" tabRatio="667" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="resistance" sheetId="63" r:id="rId5"/>
     <sheet name="param" sheetId="64" r:id="rId6"/>
     <sheet name="BIBO" sheetId="66" r:id="rId7"/>
+    <sheet name="matain" sheetId="69" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="751">
   <si>
     <t>组序号</t>
   </si>
@@ -2582,12 +2583,768 @@
     <t>matain_insulation</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>故障代码</t>
+  </si>
+  <si>
+    <t>故障类型</t>
+  </si>
+  <si>
+    <t>原因不明</t>
+  </si>
+  <si>
+    <t>本地刷卡停止</t>
+  </si>
+  <si>
+    <t>运程终止充电</t>
+  </si>
+  <si>
+    <t>充满自动停止</t>
+  </si>
+  <si>
+    <t>用户拔枪</t>
+  </si>
+  <si>
+    <t>停电</t>
+  </si>
+  <si>
+    <t>急停</t>
+  </si>
+  <si>
+    <t>交流输入过压</t>
+  </si>
+  <si>
+    <t>交流输入欠压</t>
+  </si>
+  <si>
+    <t>交流输入过流</t>
+  </si>
+  <si>
+    <t>枪接地故障</t>
+  </si>
+  <si>
+    <t>余额满足条件</t>
+  </si>
+  <si>
+    <t>电量满足条件</t>
+  </si>
+  <si>
+    <t>时间满足条件</t>
+  </si>
+  <si>
+    <t>BMS故障</t>
+  </si>
+  <si>
+    <t>桩禁用</t>
+  </si>
+  <si>
+    <t>管理员用户ID停止</t>
+  </si>
+  <si>
+    <t>充电中断电续充</t>
+  </si>
+  <si>
+    <t>充电金额达到设定值</t>
+  </si>
+  <si>
+    <t>用户界面点击终止</t>
+  </si>
+  <si>
+    <t>车辆ID鉴权失败</t>
+  </si>
+  <si>
+    <t>后台黑名单卡启动失败</t>
+  </si>
+  <si>
+    <t>本地黑名单卡启动失败</t>
+  </si>
+  <si>
+    <t>计费参数无效</t>
+  </si>
+  <si>
+    <t>车BMS自动停止</t>
+  </si>
+  <si>
+    <t>握手阶段K1K1外侧电压不小于10V</t>
+  </si>
+  <si>
+    <t>泄放后直流继电器外侧电压不小于10V</t>
+  </si>
+  <si>
+    <t>BCP-电池最高允许充电电压不匹配</t>
+  </si>
+  <si>
+    <t>充电前车端电压不正常</t>
+  </si>
+  <si>
+    <t>充电中暂停超过10分钟</t>
+  </si>
+  <si>
+    <t>接收BMS的辨识报文超时</t>
+  </si>
+  <si>
+    <t>接收电池充电参数报文超时</t>
+  </si>
+  <si>
+    <t>接收BMS完成充电准备报文超时</t>
+  </si>
+  <si>
+    <t>接收电池充电总状态报文超时</t>
+  </si>
+  <si>
+    <t>接收电池充电需求报文超时</t>
+  </si>
+  <si>
+    <t>BMS-单体动力蓄电池电压过高</t>
+  </si>
+  <si>
+    <t>BMS-单体动力蓄电池电压过低</t>
+  </si>
+  <si>
+    <t>BMS-整车动力蓄电池荷电状态SOC过高</t>
+  </si>
+  <si>
+    <t>BMS-整车动力蓄电池荷电状态SOC过低</t>
+  </si>
+  <si>
+    <t>BMS-整车动力蓄电池充电过电流</t>
+  </si>
+  <si>
+    <t>BMS-整车动力蓄电池绝缘状态不正常</t>
+  </si>
+  <si>
+    <t>BMS-动力蓄电池组输出连接器状态不正常</t>
+  </si>
+  <si>
+    <t>单体电压过高中止</t>
+  </si>
+  <si>
+    <t>需求电流异常</t>
+  </si>
+  <si>
+    <t>BST-达到所需SOC目标值</t>
+  </si>
+  <si>
+    <t>BST-达到总电压设定值</t>
+  </si>
+  <si>
+    <t>BST-达到单体电压的设定值</t>
+  </si>
+  <si>
+    <t>BST-充电机主动终止</t>
+  </si>
+  <si>
+    <t>BST-绝缘故障</t>
+  </si>
+  <si>
+    <t>BST-输出连接器过温故障</t>
+  </si>
+  <si>
+    <t>BST-BMS元件故障</t>
+  </si>
+  <si>
+    <t>BST-充电连接器故障</t>
+  </si>
+  <si>
+    <t>BST-电池组温度过高故障</t>
+  </si>
+  <si>
+    <t>BST-高压继电器故障</t>
+  </si>
+  <si>
+    <t>BST-监测点2电压检测故障</t>
+  </si>
+  <si>
+    <t>BST-其他故障</t>
+  </si>
+  <si>
+    <t>BST-电流超过需求值</t>
+  </si>
+  <si>
+    <t>BST-电压异常</t>
+  </si>
+  <si>
+    <t>枪-直流输出反接</t>
+  </si>
+  <si>
+    <t>枪-直流输出短接</t>
+  </si>
+  <si>
+    <t>充电中CC1连接断开</t>
+  </si>
+  <si>
+    <t>维修门打开</t>
+  </si>
+  <si>
+    <t>枪-电磁锁充电中断开</t>
+  </si>
+  <si>
+    <t>枪-直流输出过压</t>
+  </si>
+  <si>
+    <t>枪-直流输出过流</t>
+  </si>
+  <si>
+    <t>枪-直流输出超过额定电流</t>
+  </si>
+  <si>
+    <t>交流输入过频</t>
+  </si>
+  <si>
+    <t>交流输入欠频</t>
+  </si>
+  <si>
+    <t>枪-绝缘故障</t>
+  </si>
+  <si>
+    <t>枪-交流接触器故障</t>
+  </si>
+  <si>
+    <t>枪-直流输出熔断器故障</t>
+  </si>
+  <si>
+    <t>枪-电子锁故障</t>
+  </si>
+  <si>
+    <t>枪-直流电表通讯故障</t>
+  </si>
+  <si>
+    <t>枪-直流电表故障</t>
+  </si>
+  <si>
+    <t>枪-交流电表通讯故障</t>
+  </si>
+  <si>
+    <t>枪-交流电表故障</t>
+  </si>
+  <si>
+    <t>设备故障</t>
+  </si>
+  <si>
+    <t>枪设备故障</t>
+  </si>
+  <si>
+    <t>枪-泄放电路故障</t>
+  </si>
+  <si>
+    <t>枪-直流模块通信故障</t>
+  </si>
+  <si>
+    <t>枪-直流模块故障</t>
+  </si>
+  <si>
+    <t>进风口过温</t>
+  </si>
+  <si>
+    <t>进风口低温</t>
+  </si>
+  <si>
+    <t>出风口过温</t>
+  </si>
+  <si>
+    <t>装置内部温度过高</t>
+  </si>
+  <si>
+    <t>装置内部温度过低</t>
+  </si>
+  <si>
+    <t>枪-充电枪头过温</t>
+  </si>
+  <si>
+    <t>防雷器故障</t>
+  </si>
+  <si>
+    <t>枪-直流继电器故障</t>
+  </si>
+  <si>
+    <t>枪-绝缘设备故障</t>
+  </si>
+  <si>
+    <t>枪-BRO中AA变为00</t>
+  </si>
+  <si>
+    <t>枪-接收BRO中AA超时</t>
+  </si>
+  <si>
+    <t>BSM-动力蓄电池温度过高</t>
+  </si>
+  <si>
+    <t>BSM-暂停充电超过10分钟</t>
+  </si>
+  <si>
+    <t>温度采集故障</t>
+  </si>
+  <si>
+    <t>枪K1K2故障</t>
+  </si>
+  <si>
+    <t>断电续充SOC不同，(SOC相差超过15%)</t>
+  </si>
+  <si>
+    <t>电表计量故障，(电表功率小于直流模块功率20%以上)</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2664,8 +3421,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2699,6 +3462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,7 +3557,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2944,6 +3713,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3278,7 +4053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
@@ -3617,11 +4392,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -3638,9 +4413,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3655,9 +4430,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -3672,9 +4447,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -3689,9 +4464,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -3752,11 +4527,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -3773,9 +4548,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3790,9 +4565,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3807,9 +4582,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3824,9 +4599,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3883,11 +4658,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="68" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="22">
@@ -3904,9 +4679,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3921,9 +4696,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3938,9 +4713,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3955,9 +4730,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
@@ -3972,11 +4747,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
@@ -3993,9 +4768,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
@@ -4010,11 +4785,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="65" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="22">
@@ -4031,9 +4806,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
@@ -4048,11 +4823,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="22">
@@ -4069,9 +4844,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
@@ -4086,11 +4861,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="22">
@@ -4107,9 +4882,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -4124,9 +4899,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -4141,9 +4916,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -4158,9 +4933,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
@@ -4175,11 +4950,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="56">
+      <c r="A45" s="58">
         <v>13</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="22">
@@ -4259,11 +5034,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="71" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="22">
@@ -4280,9 +5055,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -4297,9 +5072,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -4398,11 +5173,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="59" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="22">
@@ -4419,9 +5194,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
@@ -4436,9 +5211,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
@@ -4453,9 +5228,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
@@ -4470,9 +5245,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
@@ -4487,9 +5262,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
@@ -4504,9 +5279,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -4563,11 +5338,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="71" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="22">
@@ -4584,9 +5359,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
@@ -4601,9 +5376,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
@@ -4702,11 +5477,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="59" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="22">
@@ -4723,9 +5498,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
@@ -4740,9 +5515,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
@@ -4757,9 +5532,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -4774,9 +5549,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
@@ -4791,9 +5566,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
@@ -4808,9 +5583,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="64"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -4867,11 +5642,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="63"/>
-      <c r="B81" s="63" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="65" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="22">
@@ -4888,9 +5663,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
@@ -4905,9 +5680,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
@@ -4922,9 +5697,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
@@ -5233,11 +6008,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
-      <c r="B99" s="70" t="s">
+      <c r="A99" s="72"/>
+      <c r="B99" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C99" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
@@ -5254,9 +6029,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
@@ -5271,9 +6046,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
@@ -5309,11 +6084,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
-      <c r="B103" s="70" t="s">
+      <c r="A103" s="72"/>
+      <c r="B103" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="72" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="22">
@@ -5330,9 +6105,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5347,9 +6122,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -6351,11 +7126,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="72"/>
-      <c r="B153" s="72" t="s">
+      <c r="A153" s="74"/>
+      <c r="B153" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C153" s="56" t="s">
+      <c r="C153" s="58" t="s">
         <v>220</v>
       </c>
       <c r="D153" s="16">
@@ -6372,9 +7147,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="72"/>
-      <c r="B154" s="72"/>
-      <c r="C154" s="56"/>
+      <c r="A154" s="74"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
@@ -6389,9 +7164,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="72"/>
-      <c r="B155" s="72"/>
-      <c r="C155" s="56"/>
+      <c r="A155" s="74"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
@@ -6658,11 +7433,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57" t="s">
+      <c r="A168" s="59"/>
+      <c r="B168" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="C168" s="57" t="s">
+      <c r="C168" s="59" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="46">
@@ -6679,9 +7454,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="64"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
       <c r="D169" s="46">
         <v>168</v>
       </c>
@@ -6696,9 +7471,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="64"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
       <c r="D170" s="46">
         <v>169</v>
       </c>
@@ -6713,9 +7488,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="64"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
       <c r="D171" s="46">
         <v>170</v>
       </c>
@@ -6730,9 +7505,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
       <c r="D172" s="46">
         <v>171</v>
       </c>
@@ -6747,9 +7522,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="64"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
       <c r="D173" s="46">
         <v>172</v>
       </c>
@@ -6764,9 +7539,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="65"/>
-      <c r="B174" s="59"/>
-      <c r="C174" s="59"/>
+      <c r="A174" s="67"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="61"/>
       <c r="D174" s="46">
         <v>173</v>
       </c>
@@ -6781,11 +7556,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="57"/>
-      <c r="B175" s="57" t="s">
+      <c r="A175" s="59"/>
+      <c r="B175" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="C175" s="57" t="s">
+      <c r="C175" s="59" t="s">
         <v>220</v>
       </c>
       <c r="D175" s="46">
@@ -6802,9 +7577,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="64"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
       <c r="D176" s="46">
         <v>175</v>
       </c>
@@ -6819,9 +7594,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="64"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="58"/>
+      <c r="A177" s="66"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="60"/>
       <c r="D177" s="46">
         <v>176</v>
       </c>
@@ -6836,9 +7611,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="64"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
+      <c r="A178" s="66"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="60"/>
       <c r="D178" s="46">
         <v>177</v>
       </c>
@@ -6853,9 +7628,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="64"/>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="60"/>
       <c r="D179" s="46">
         <v>178</v>
       </c>
@@ -6870,9 +7645,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="64"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
+      <c r="A180" s="66"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
       <c r="D180" s="46">
         <v>179</v>
       </c>
@@ -6887,9 +7662,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="65"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
       <c r="D181" s="46">
         <v>180</v>
       </c>
@@ -6967,11 +7742,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="73"/>
-      <c r="B185" s="57" t="s">
+      <c r="A185" s="75"/>
+      <c r="B185" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="C185" s="60" t="s">
+      <c r="C185" s="62" t="s">
         <v>263</v>
       </c>
       <c r="D185" s="46">
@@ -6988,9 +7763,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="64"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="61"/>
+      <c r="A186" s="66"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="63"/>
       <c r="D186" s="46">
         <v>185</v>
       </c>
@@ -7005,9 +7780,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="64"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="61"/>
+      <c r="A187" s="66"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="63"/>
       <c r="D187" s="46">
         <v>186</v>
       </c>
@@ -7022,9 +7797,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="64"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="61"/>
+      <c r="A188" s="66"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="63"/>
       <c r="D188" s="46">
         <v>187</v>
       </c>
@@ -7039,9 +7814,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="64"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="61"/>
+      <c r="A189" s="66"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="63"/>
       <c r="D189" s="46">
         <v>188</v>
       </c>
@@ -7056,9 +7831,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="64"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="61"/>
+      <c r="A190" s="66"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="63"/>
       <c r="D190" s="46">
         <v>189</v>
       </c>
@@ -7073,9 +7848,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="64"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="61"/>
+      <c r="A191" s="66"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="63"/>
       <c r="D191" s="46">
         <v>190</v>
       </c>
@@ -7090,9 +7865,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="64"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="61"/>
+      <c r="A192" s="66"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="63"/>
       <c r="D192" s="46">
         <v>191</v>
       </c>
@@ -7107,9 +7882,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="64"/>
-      <c r="B193" s="58"/>
-      <c r="C193" s="61"/>
+      <c r="A193" s="66"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="63"/>
       <c r="D193" s="46">
         <v>192</v>
       </c>
@@ -7124,9 +7899,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="64"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="61"/>
+      <c r="A194" s="66"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="63"/>
       <c r="D194" s="46">
         <v>193</v>
       </c>
@@ -7141,9 +7916,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="64"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="61"/>
+      <c r="A195" s="66"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="63"/>
       <c r="D195" s="46">
         <v>194</v>
       </c>
@@ -7158,9 +7933,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="64"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="61"/>
+      <c r="A196" s="66"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="63"/>
       <c r="D196" s="46">
         <v>195</v>
       </c>
@@ -7175,9 +7950,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="64"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="61"/>
+      <c r="A197" s="66"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="63"/>
       <c r="D197" s="46">
         <v>196</v>
       </c>
@@ -7192,9 +7967,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="64"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="61"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="63"/>
       <c r="D198" s="46">
         <v>197</v>
       </c>
@@ -7209,9 +7984,9 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="65"/>
-      <c r="B199" s="59"/>
-      <c r="C199" s="62"/>
+      <c r="A199" s="67"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="64"/>
       <c r="D199" s="46">
         <v>198</v>
       </c>
@@ -7226,11 +8001,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="63"/>
-      <c r="B200" s="63" t="s">
+      <c r="A200" s="65"/>
+      <c r="B200" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="C200" s="63" t="s">
+      <c r="C200" s="65" t="s">
         <v>300</v>
       </c>
       <c r="D200" s="46">
@@ -7247,9 +8022,9 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="63"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="63"/>
+      <c r="A201" s="65"/>
+      <c r="B201" s="65"/>
+      <c r="C201" s="65"/>
       <c r="D201" s="46">
         <v>200</v>
       </c>
@@ -7264,9 +8039,9 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="63"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="63"/>
+      <c r="A202" s="65"/>
+      <c r="B202" s="65"/>
+      <c r="C202" s="65"/>
       <c r="D202" s="46">
         <v>201</v>
       </c>
@@ -7281,9 +8056,9 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="63"/>
-      <c r="B203" s="63"/>
-      <c r="C203" s="63"/>
+      <c r="A203" s="65"/>
+      <c r="B203" s="65"/>
+      <c r="C203" s="65"/>
       <c r="D203" s="46">
         <v>202</v>
       </c>
@@ -7382,11 +8157,11 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="56"/>
-      <c r="B208" s="56" t="s">
+      <c r="A208" s="58"/>
+      <c r="B208" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C208" s="56" t="s">
+      <c r="C208" s="58" t="s">
         <v>309</v>
       </c>
       <c r="D208" s="37">
@@ -7403,9 +8178,9 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="56"/>
-      <c r="B209" s="56"/>
-      <c r="C209" s="56"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="58"/>
+      <c r="C209" s="58"/>
       <c r="D209" s="37">
         <v>208</v>
       </c>
@@ -7420,9 +8195,9 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="56"/>
-      <c r="B210" s="56"/>
-      <c r="C210" s="56"/>
+      <c r="A210" s="58"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="58"/>
       <c r="D210" s="37">
         <v>209</v>
       </c>
@@ -7437,11 +8212,11 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="56"/>
-      <c r="B211" s="56" t="s">
+      <c r="A211" s="58"/>
+      <c r="B211" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C211" s="56" t="s">
+      <c r="C211" s="58" t="s">
         <v>309</v>
       </c>
       <c r="D211" s="37">
@@ -7458,9 +8233,9 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="56"/>
-      <c r="B212" s="56"/>
-      <c r="C212" s="56"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="58"/>
       <c r="D212" s="37">
         <v>211</v>
       </c>
@@ -7475,9 +8250,9 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="56"/>
-      <c r="B213" s="56"/>
-      <c r="C213" s="56"/>
+      <c r="A213" s="58"/>
+      <c r="B213" s="58"/>
+      <c r="C213" s="58"/>
       <c r="D213" s="37">
         <v>212</v>
       </c>
@@ -12748,4 +13523,913 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F908816B-BBDD-4459-A889-BCB04A914A27}">
+  <dimension ref="A1:B115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>647</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="49" t="s">
+        <v>709</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>716</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="B75" s="56" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B82" s="56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="B91" s="56" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="B92" s="56" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="s">
+        <v>740</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="B98" s="56" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="B99" s="56" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B100" s="56"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="B101" s="56"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="B102" s="56"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="B103" s="56"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="B104" s="56"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="B105" s="56"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="B106" s="56"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="B107" s="56"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="49" t="s">
+        <v>667</v>
+      </c>
+      <c r="B108" s="56"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="49" t="s">
+        <v>666</v>
+      </c>
+      <c r="B109" s="56"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="B110" s="56"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="B111" s="56"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="B112" s="56"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="49" t="s">
+        <v>662</v>
+      </c>
+      <c r="B113" s="56"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="B114" s="56"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="B115" s="56"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>